--- a/site/StructureDefinition-medme-pharmacy-location.xlsx
+++ b/site/StructureDefinition-medme-pharmacy-location.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.11</t>
+    <t>0.9.15</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-10T15:54:27-03:00</t>
+    <t>2025-10-03T11:11:24-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/site/StructureDefinition-medme-pharmacy-location.xlsx
+++ b/site/StructureDefinition-medme-pharmacy-location.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-03T11:11:24-03:00</t>
+    <t>2025-10-30T18:43:23-03:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/site/StructureDefinition-medme-pharmacy-location.xlsx
+++ b/site/StructureDefinition-medme-pharmacy-location.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.15</t>
+    <t>0.9.20</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T18:43:23-03:00</t>
+    <t>2025-11-18T19:57:13-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -12439,7 +12439,7 @@
       </c>
       <c r="E103" s="2"/>
       <c r="F103" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G103" t="s" s="2">
         <v>81</v>

--- a/site/StructureDefinition-medme-pharmacy-location.xlsx
+++ b/site/StructureDefinition-medme-pharmacy-location.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.20</t>
+    <t>0.9.21</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T19:57:13-03:00</t>
+    <t>2025-11-24T17:38:48-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1981,17 +1981,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="44.61328125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="36.84765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="16.90625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="42.83984375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="36.19140625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="16.1796875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="33.17578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.30078125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="3.953125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.265625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.6875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.51171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="90.0078125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="89.2421875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2000,21 +2000,21 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="34.26953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="58.125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="32.84765625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="34.2421875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="13.609375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="13.91796875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.01171875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="82.29296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="57.46484375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.98046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="34.578125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.54296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.3203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="32.29296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.22265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.53125" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
   </cols>
   <sheetData>
@@ -3556,7 +3556,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
         <v>175</v>
       </c>
@@ -3660,7 +3660,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
         <v>182</v>
       </c>
@@ -3964,7 +3964,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
         <v>199</v>
       </c>
@@ -4478,7 +4478,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
         <v>206</v>
       </c>
@@ -4582,7 +4582,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
         <v>208</v>
       </c>
@@ -4886,7 +4886,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
         <v>211</v>
       </c>
@@ -5400,7 +5400,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
         <v>218</v>
       </c>
@@ -5504,7 +5504,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
         <v>220</v>
       </c>
@@ -5808,7 +5808,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
         <v>223</v>
       </c>
@@ -6008,7 +6008,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
         <v>234</v>
       </c>
@@ -6520,7 +6520,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
         <v>259</v>
       </c>
@@ -8050,7 +8050,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="60" hidden="true">
+    <row r="60">
       <c r="A60" t="s" s="2">
         <v>327</v>
       </c>
@@ -8150,7 +8150,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="61" hidden="true">
+    <row r="61">
       <c r="A61" t="s" s="2">
         <v>334</v>
       </c>
@@ -8560,7 +8560,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="65" hidden="true">
+    <row r="65">
       <c r="A65" t="s" s="2">
         <v>358</v>
       </c>
@@ -8864,7 +8864,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="68" hidden="true">
+    <row r="68">
       <c r="A68" t="s" s="2">
         <v>363</v>
       </c>
@@ -8964,7 +8964,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="69" hidden="true">
+    <row r="69">
       <c r="A69" t="s" s="2">
         <v>364</v>
       </c>
@@ -9374,7 +9374,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="73" hidden="true">
+    <row r="73">
       <c r="A73" t="s" s="2">
         <v>369</v>
       </c>
@@ -9678,7 +9678,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="76" hidden="true">
+    <row r="76">
       <c r="A76" t="s" s="2">
         <v>373</v>
       </c>
@@ -9778,7 +9778,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="77" hidden="true">
+    <row r="77">
       <c r="A77" t="s" s="2">
         <v>374</v>
       </c>
@@ -10188,7 +10188,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="81" hidden="true">
+    <row r="81">
       <c r="A81" t="s" s="2">
         <v>378</v>
       </c>
@@ -10492,7 +10492,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="84" hidden="true">
+    <row r="84">
       <c r="A84" t="s" s="2">
         <v>382</v>
       </c>
@@ -10592,7 +10592,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="85" hidden="true">
+    <row r="85">
       <c r="A85" t="s" s="2">
         <v>383</v>
       </c>
@@ -11002,7 +11002,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="89" hidden="true">
+    <row r="89">
       <c r="A89" t="s" s="2">
         <v>387</v>
       </c>
@@ -11514,7 +11514,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="94" hidden="true">
+    <row r="94">
       <c r="A94" t="s" s="2">
         <v>413</v>
       </c>
@@ -11718,7 +11718,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="96" hidden="true">
+    <row r="96">
       <c r="A96" t="s" s="2">
         <v>425</v>
       </c>
@@ -12020,7 +12020,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="99" hidden="true">
+    <row r="99">
       <c r="A99" t="s" s="2">
         <v>443</v>
       </c>
@@ -12120,7 +12120,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="100" hidden="true">
+    <row r="100">
       <c r="A100" t="s" s="2">
         <v>449</v>
       </c>
@@ -14352,12 +14352,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AJ121">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/site/StructureDefinition-medme-pharmacy-location.xlsx
+++ b/site/StructureDefinition-medme-pharmacy-location.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T17:38:48-05:00</t>
+    <t>2025-11-25T16:51:38-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/site/StructureDefinition-medme-pharmacy-location.xlsx
+++ b/site/StructureDefinition-medme-pharmacy-location.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.21</t>
+    <t>0.9.22</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T17:38:48-05:00</t>
+    <t>2025-11-25T17:07:48-05:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/site/StructureDefinition-medme-pharmacy-location.xlsx
+++ b/site/StructureDefinition-medme-pharmacy-location.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.22</t>
+    <t>0.9.23</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T17:07:48-05:00</t>
+    <t>2025-12-02T11:10:54-03:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1981,17 +1981,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="42.83984375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="36.19140625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="16.1796875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="33.17578125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.30078125" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="3.953125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.265625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="12.6875" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="10.51171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="44.61328125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="36.84765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="16.90625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="89.2421875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="90.0078125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2000,21 +2000,21 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="34.2421875" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="13.609375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="13.91796875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="15.01171875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="82.29296875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="57.46484375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.98046875" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="34.578125" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="13.54296875" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="11.3203125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="32.29296875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="8.22265625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="8.53125" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="34.26953125" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="58.125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="32.84765625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
   </cols>
   <sheetData>
@@ -3556,7 +3556,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
         <v>175</v>
       </c>
@@ -3660,7 +3660,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
         <v>182</v>
       </c>
@@ -3964,7 +3964,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
         <v>199</v>
       </c>
@@ -4478,7 +4478,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
         <v>206</v>
       </c>
@@ -4582,7 +4582,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
         <v>208</v>
       </c>
@@ -4886,7 +4886,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
         <v>211</v>
       </c>
@@ -5400,7 +5400,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
         <v>218</v>
       </c>
@@ -5504,7 +5504,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
         <v>220</v>
       </c>
@@ -5808,7 +5808,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
         <v>223</v>
       </c>
@@ -6008,7 +6008,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
         <v>234</v>
       </c>
@@ -6520,7 +6520,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
         <v>259</v>
       </c>
@@ -8050,7 +8050,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
         <v>327</v>
       </c>
@@ -8150,7 +8150,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
         <v>334</v>
       </c>
@@ -8560,7 +8560,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
         <v>358</v>
       </c>
@@ -8864,7 +8864,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
         <v>363</v>
       </c>
@@ -8964,7 +8964,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
         <v>364</v>
       </c>
@@ -9374,7 +9374,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
         <v>369</v>
       </c>
@@ -9678,7 +9678,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
         <v>373</v>
       </c>
@@ -9778,7 +9778,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
         <v>374</v>
       </c>
@@ -10188,7 +10188,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
         <v>378</v>
       </c>
@@ -10492,7 +10492,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
         <v>382</v>
       </c>
@@ -10592,7 +10592,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
         <v>383</v>
       </c>
@@ -11002,7 +11002,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" hidden="true">
       <c r="A89" t="s" s="2">
         <v>387</v>
       </c>
@@ -11514,7 +11514,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" hidden="true">
       <c r="A94" t="s" s="2">
         <v>413</v>
       </c>
@@ -11718,7 +11718,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" hidden="true">
       <c r="A96" t="s" s="2">
         <v>425</v>
       </c>
@@ -12020,7 +12020,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" hidden="true">
       <c r="A99" t="s" s="2">
         <v>443</v>
       </c>
@@ -12033,7 +12033,7 @@
       </c>
       <c r="E99" s="2"/>
       <c r="F99" t="s" s="2">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="G99" t="s" s="2">
         <v>81</v>
@@ -12120,7 +12120,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" hidden="true">
       <c r="A100" t="s" s="2">
         <v>449</v>
       </c>
@@ -14352,12 +14352,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AJ121">
-    <filterColumn colId="7">
+    <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="27">
+    <filterColumn colId="26">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/site/StructureDefinition-medme-pharmacy-location.xlsx
+++ b/site/StructureDefinition-medme-pharmacy-location.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.23</t>
+    <t>0.9.24</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T11:10:54-03:00</t>
+    <t>2025-12-08T15:17:38-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -892,7 +892,7 @@
     <t>Need to be unambiguous about the source of the definition of the symbol.</t>
   </si>
   <si>
-    <t>https://terminology.hl7.org/CodeSystem/v3-RoleCode</t>
+    <t>http://terminology.hl7.org/CodeSystem/v3-RoleCode</t>
   </si>
   <si>
     <t>Coding.system</t>
@@ -1981,17 +1981,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="44.61328125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="36.84765625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="16.90625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="34.21875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="5.80859375" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="4.23828125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="4.65625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="42.83984375" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="36.19140625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="16.1796875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="33.17578125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="5.30078125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="3.953125" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="4.265625" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.6875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="10.51171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="90.0078125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="89.2421875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2000,21 +2000,21 @@
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="34.26953125" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="14.72265625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="15.13671875" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="84.33984375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="58.125" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="36.0390625" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="14.7578125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="12.359375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="32.84765625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.046875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="9.46484375" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="34.2421875" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="13.609375" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="13.91796875" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="15.01171875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="82.29296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="57.46484375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="5.07421875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="17.98046875" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="34.578125" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.54296875" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="11.3203125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="32.29296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="8.22265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="8.53125" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
   </cols>
   <sheetData>
@@ -3556,7 +3556,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
         <v>175</v>
       </c>
@@ -3660,7 +3660,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
         <v>182</v>
       </c>
@@ -3964,7 +3964,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
         <v>199</v>
       </c>
@@ -4478,7 +4478,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
         <v>206</v>
       </c>
@@ -4582,7 +4582,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
         <v>208</v>
       </c>
@@ -4886,7 +4886,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
         <v>211</v>
       </c>
@@ -5400,7 +5400,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
         <v>218</v>
       </c>
@@ -5504,7 +5504,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
         <v>220</v>
       </c>
@@ -5808,7 +5808,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
         <v>223</v>
       </c>
@@ -6008,7 +6008,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
         <v>234</v>
       </c>
@@ -6520,7 +6520,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
         <v>259</v>
       </c>
@@ -8050,7 +8050,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="60" hidden="true">
+    <row r="60">
       <c r="A60" t="s" s="2">
         <v>327</v>
       </c>
@@ -8150,7 +8150,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="61" hidden="true">
+    <row r="61">
       <c r="A61" t="s" s="2">
         <v>334</v>
       </c>
@@ -8560,7 +8560,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="65" hidden="true">
+    <row r="65">
       <c r="A65" t="s" s="2">
         <v>358</v>
       </c>
@@ -8864,7 +8864,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="68" hidden="true">
+    <row r="68">
       <c r="A68" t="s" s="2">
         <v>363</v>
       </c>
@@ -8964,7 +8964,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="69" hidden="true">
+    <row r="69">
       <c r="A69" t="s" s="2">
         <v>364</v>
       </c>
@@ -9374,7 +9374,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="73" hidden="true">
+    <row r="73">
       <c r="A73" t="s" s="2">
         <v>369</v>
       </c>
@@ -9678,7 +9678,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="76" hidden="true">
+    <row r="76">
       <c r="A76" t="s" s="2">
         <v>373</v>
       </c>
@@ -9778,7 +9778,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="77" hidden="true">
+    <row r="77">
       <c r="A77" t="s" s="2">
         <v>374</v>
       </c>
@@ -10188,7 +10188,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="81" hidden="true">
+    <row r="81">
       <c r="A81" t="s" s="2">
         <v>378</v>
       </c>
@@ -10492,7 +10492,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="84" hidden="true">
+    <row r="84">
       <c r="A84" t="s" s="2">
         <v>382</v>
       </c>
@@ -10592,7 +10592,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="85" hidden="true">
+    <row r="85">
       <c r="A85" t="s" s="2">
         <v>383</v>
       </c>
@@ -11002,7 +11002,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="89" hidden="true">
+    <row r="89">
       <c r="A89" t="s" s="2">
         <v>387</v>
       </c>
@@ -11514,7 +11514,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="94" hidden="true">
+    <row r="94">
       <c r="A94" t="s" s="2">
         <v>413</v>
       </c>
@@ -11718,7 +11718,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="96" hidden="true">
+    <row r="96">
       <c r="A96" t="s" s="2">
         <v>425</v>
       </c>
@@ -12020,7 +12020,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="99" hidden="true">
+    <row r="99">
       <c r="A99" t="s" s="2">
         <v>443</v>
       </c>
@@ -12120,7 +12120,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="100" hidden="true">
+    <row r="100">
       <c r="A100" t="s" s="2">
         <v>449</v>
       </c>
@@ -14352,12 +14352,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AJ121">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>

--- a/site/StructureDefinition-medme-pharmacy-location.xlsx
+++ b/site/StructureDefinition-medme-pharmacy-location.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.9.24</t>
+    <t>0.9.25</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-08T15:17:38-05:00</t>
+    <t>2025-12-10T09:54:50-05:00</t>
   </si>
   <si>
     <t>Publisher</t>
